--- a/concurrents.xlsx
+++ b/concurrents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Belcourtois\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Belcourtois\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE9505C-5C08-40F8-8855-CABA04B448B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158400F2-CEBD-4770-BEE8-13C74487CEF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{C2505F9C-D507-4C4E-96FB-D84B6764D9DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{C2505F9C-D507-4C4E-96FB-D84B6764D9DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Concurrents" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="103">
   <si>
     <t>TOSA</t>
   </si>
@@ -271,9 +271,6 @@
     <t>100 et +</t>
   </si>
   <si>
-    <t>Tarif/Eleve</t>
-  </si>
-  <si>
     <t>Nb eleves pris en compte</t>
   </si>
   <si>
@@ -359,6 +356,12 @@
   <si>
     <t>Publicite 
 (linkedIn = 2€/clic)</t>
+  </si>
+  <si>
+    <t>Différence</t>
+  </si>
+  <si>
+    <t>Tarif/Eleve/an</t>
   </si>
 </sst>
 </file>
@@ -488,9 +491,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -523,6 +523,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,13 +620,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-97167.76</c:v>
+                  <c:v>-97592.76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12933.359999999986</c:v>
+                  <c:v>-316.64000000001397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>184280.6</c:v>
+                  <c:v>158780.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1705,15 +1708,15 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="46.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>14</v>
@@ -1743,12 +1746,12 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1769,7 +1772,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +1800,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1825,7 +1828,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1853,7 +1856,7 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1881,7 +1884,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1909,7 +1912,7 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1937,7 +1940,7 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1965,7 +1968,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1995,7 +1998,7 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -2023,7 +2026,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -2053,7 +2056,7 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2081,12 +2084,12 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2107,7 +2110,7 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -2135,7 +2138,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -2163,7 +2166,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -2191,7 +2194,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -2219,7 +2222,7 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -2247,7 +2250,7 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -2275,7 +2278,7 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -2303,7 +2306,7 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -2333,7 +2336,7 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2357,7 +2360,7 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2381,7 +2384,7 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2405,7 +2408,7 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2429,7 +2432,7 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2453,7 +2456,7 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2477,7 +2480,7 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2501,7 +2504,7 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2525,7 +2528,7 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2549,7 +2552,7 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2573,7 +2576,7 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2597,7 +2600,7 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2621,7 +2624,7 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2645,7 +2648,7 @@
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2669,7 +2672,7 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2693,7 +2696,7 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2717,7 +2720,7 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2741,7 +2744,7 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2765,7 +2768,7 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2789,7 +2792,7 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2813,7 +2816,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2837,7 +2840,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2861,7 +2864,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2885,7 +2888,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2909,7 +2912,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2933,7 +2936,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2957,7 +2960,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2981,7 +2984,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3005,7 +3008,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3029,7 +3032,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3053,7 +3056,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3077,7 +3080,7 @@
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3101,7 +3104,7 @@
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3125,7 +3128,7 @@
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3149,7 +3152,7 @@
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3173,7 +3176,7 @@
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3197,7 +3200,7 @@
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3221,7 +3224,7 @@
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3245,7 +3248,7 @@
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3269,7 +3272,7 @@
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3293,7 +3296,7 @@
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3317,7 +3320,7 @@
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3341,7 +3344,7 @@
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3365,7 +3368,7 @@
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3389,7 +3392,7 @@
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3413,7 +3416,7 @@
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3437,7 +3440,7 @@
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3461,7 +3464,7 @@
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3485,7 +3488,7 @@
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3509,7 +3512,7 @@
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3533,7 +3536,7 @@
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3557,7 +3560,7 @@
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3581,7 +3584,7 @@
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3605,7 +3608,7 @@
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3629,7 +3632,7 @@
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3653,7 +3656,7 @@
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3677,7 +3680,7 @@
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3701,7 +3704,7 @@
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3725,7 +3728,7 @@
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3749,7 +3752,7 @@
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3773,7 +3776,7 @@
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3797,7 +3800,7 @@
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3821,7 +3824,7 @@
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3845,7 +3848,7 @@
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3869,7 +3872,7 @@
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3893,7 +3896,7 @@
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3917,7 +3920,7 @@
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3941,7 +3944,7 @@
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3965,7 +3968,7 @@
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3989,7 +3992,7 @@
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4013,7 +4016,7 @@
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4037,7 +4040,7 @@
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4061,7 +4064,7 @@
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4085,7 +4088,7 @@
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4109,7 +4112,7 @@
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4133,7 +4136,7 @@
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4157,7 +4160,7 @@
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4181,7 +4184,7 @@
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4205,7 +4208,7 @@
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4229,7 +4232,7 @@
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4253,7 +4256,7 @@
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4277,7 +4280,7 @@
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4301,7 +4304,7 @@
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4325,7 +4328,7 @@
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4349,7 +4352,7 @@
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4373,7 +4376,7 @@
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4397,7 +4400,7 @@
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4421,7 +4424,7 @@
       <c r="U109" s="2"/>
       <c r="V109" s="2"/>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4445,7 +4448,7 @@
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4469,7 +4472,7 @@
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4493,7 +4496,7 @@
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4517,7 +4520,7 @@
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4541,7 +4544,7 @@
       <c r="U114" s="2"/>
       <c r="V114" s="2"/>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4565,7 +4568,7 @@
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4589,7 +4592,7 @@
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4613,7 +4616,7 @@
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4637,7 +4640,7 @@
       <c r="U118" s="2"/>
       <c r="V118" s="2"/>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4661,7 +4664,7 @@
       <c r="U119" s="2"/>
       <c r="V119" s="2"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4685,7 +4688,7 @@
       <c r="U120" s="2"/>
       <c r="V120" s="2"/>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4709,7 +4712,7 @@
       <c r="U121" s="2"/>
       <c r="V121" s="2"/>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4733,7 +4736,7 @@
       <c r="U122" s="2"/>
       <c r="V122" s="2"/>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4757,7 +4760,7 @@
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4781,7 +4784,7 @@
       <c r="U124" s="2"/>
       <c r="V124" s="2"/>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4805,7 +4808,7 @@
       <c r="U125" s="2"/>
       <c r="V125" s="2"/>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4829,7 +4832,7 @@
       <c r="U126" s="2"/>
       <c r="V126" s="2"/>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4853,7 +4856,7 @@
       <c r="U127" s="2"/>
       <c r="V127" s="2"/>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4877,7 +4880,7 @@
       <c r="U128" s="2"/>
       <c r="V128" s="2"/>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4901,7 +4904,7 @@
       <c r="U129" s="2"/>
       <c r="V129" s="2"/>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4925,7 +4928,7 @@
       <c r="U130" s="2"/>
       <c r="V130" s="2"/>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4949,7 +4952,7 @@
       <c r="U131" s="2"/>
       <c r="V131" s="2"/>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4973,7 +4976,7 @@
       <c r="U132" s="2"/>
       <c r="V132" s="2"/>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4997,7 +5000,7 @@
       <c r="U133" s="2"/>
       <c r="V133" s="2"/>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5021,7 +5024,7 @@
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5045,7 +5048,7 @@
       <c r="U135" s="2"/>
       <c r="V135" s="2"/>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5069,7 +5072,7 @@
       <c r="U136" s="2"/>
       <c r="V136" s="2"/>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5093,7 +5096,7 @@
       <c r="U137" s="2"/>
       <c r="V137" s="2"/>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5117,7 +5120,7 @@
       <c r="U138" s="2"/>
       <c r="V138" s="2"/>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5141,7 +5144,7 @@
       <c r="U139" s="2"/>
       <c r="V139" s="2"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5165,7 +5168,7 @@
       <c r="U140" s="2"/>
       <c r="V140" s="2"/>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5189,7 +5192,7 @@
       <c r="U141" s="2"/>
       <c r="V141" s="2"/>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5213,7 +5216,7 @@
       <c r="U142" s="2"/>
       <c r="V142" s="2"/>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5237,7 +5240,7 @@
       <c r="U143" s="2"/>
       <c r="V143" s="2"/>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5261,7 +5264,7 @@
       <c r="U144" s="2"/>
       <c r="V144" s="2"/>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5285,7 +5288,7 @@
       <c r="U145" s="2"/>
       <c r="V145" s="2"/>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5309,7 +5312,7 @@
       <c r="U146" s="2"/>
       <c r="V146" s="2"/>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5333,7 +5336,7 @@
       <c r="U147" s="2"/>
       <c r="V147" s="2"/>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5357,7 +5360,7 @@
       <c r="U148" s="2"/>
       <c r="V148" s="2"/>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5381,7 +5384,7 @@
       <c r="U149" s="2"/>
       <c r="V149" s="2"/>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5405,7 +5408,7 @@
       <c r="U150" s="2"/>
       <c r="V150" s="2"/>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5429,7 +5432,7 @@
       <c r="U151" s="2"/>
       <c r="V151" s="2"/>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5453,7 +5456,7 @@
       <c r="U152" s="2"/>
       <c r="V152" s="2"/>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5477,7 +5480,7 @@
       <c r="U153" s="2"/>
       <c r="V153" s="2"/>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5501,7 +5504,7 @@
       <c r="U154" s="2"/>
       <c r="V154" s="2"/>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5525,7 +5528,7 @@
       <c r="U155" s="2"/>
       <c r="V155" s="2"/>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5549,7 +5552,7 @@
       <c r="U156" s="2"/>
       <c r="V156" s="2"/>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5573,7 +5576,7 @@
       <c r="U157" s="2"/>
       <c r="V157" s="2"/>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5597,7 +5600,7 @@
       <c r="U158" s="2"/>
       <c r="V158" s="2"/>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5621,7 +5624,7 @@
       <c r="U159" s="2"/>
       <c r="V159" s="2"/>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5645,7 +5648,7 @@
       <c r="U160" s="2"/>
       <c r="V160" s="2"/>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5669,7 +5672,7 @@
       <c r="U161" s="2"/>
       <c r="V161" s="2"/>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5693,7 +5696,7 @@
       <c r="U162" s="2"/>
       <c r="V162" s="2"/>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5717,7 +5720,7 @@
       <c r="U163" s="2"/>
       <c r="V163" s="2"/>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5741,7 +5744,7 @@
       <c r="U164" s="2"/>
       <c r="V164" s="2"/>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5765,7 +5768,7 @@
       <c r="U165" s="2"/>
       <c r="V165" s="2"/>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5789,7 +5792,7 @@
       <c r="U166" s="2"/>
       <c r="V166" s="2"/>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5813,7 +5816,7 @@
       <c r="U167" s="2"/>
       <c r="V167" s="2"/>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5837,7 +5840,7 @@
       <c r="U168" s="2"/>
       <c r="V168" s="2"/>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5861,7 +5864,7 @@
       <c r="U169" s="2"/>
       <c r="V169" s="2"/>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5885,7 +5888,7 @@
       <c r="U170" s="2"/>
       <c r="V170" s="2"/>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5909,7 +5912,7 @@
       <c r="U171" s="2"/>
       <c r="V171" s="2"/>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5933,7 +5936,7 @@
       <c r="U172" s="2"/>
       <c r="V172" s="2"/>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5957,7 +5960,7 @@
       <c r="U173" s="2"/>
       <c r="V173" s="2"/>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5981,7 +5984,7 @@
       <c r="U174" s="2"/>
       <c r="V174" s="2"/>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6005,7 +6008,7 @@
       <c r="U175" s="2"/>
       <c r="V175" s="2"/>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6029,7 +6032,7 @@
       <c r="U176" s="2"/>
       <c r="V176" s="2"/>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6053,7 +6056,7 @@
       <c r="U177" s="2"/>
       <c r="V177" s="2"/>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6077,7 +6080,7 @@
       <c r="U178" s="2"/>
       <c r="V178" s="2"/>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6101,7 +6104,7 @@
       <c r="U179" s="2"/>
       <c r="V179" s="2"/>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6125,7 +6128,7 @@
       <c r="U180" s="2"/>
       <c r="V180" s="2"/>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6149,7 +6152,7 @@
       <c r="U181" s="2"/>
       <c r="V181" s="2"/>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6173,7 +6176,7 @@
       <c r="U182" s="2"/>
       <c r="V182" s="2"/>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6197,7 +6200,7 @@
       <c r="U183" s="2"/>
       <c r="V183" s="2"/>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6221,7 +6224,7 @@
       <c r="U184" s="2"/>
       <c r="V184" s="2"/>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6245,7 +6248,7 @@
       <c r="U185" s="2"/>
       <c r="V185" s="2"/>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6269,7 +6272,7 @@
       <c r="U186" s="2"/>
       <c r="V186" s="2"/>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6293,7 +6296,7 @@
       <c r="U187" s="2"/>
       <c r="V187" s="2"/>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6317,7 +6320,7 @@
       <c r="U188" s="2"/>
       <c r="V188" s="2"/>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6341,7 +6344,7 @@
       <c r="U189" s="2"/>
       <c r="V189" s="2"/>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6365,7 +6368,7 @@
       <c r="U190" s="2"/>
       <c r="V190" s="2"/>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6389,7 +6392,7 @@
       <c r="U191" s="2"/>
       <c r="V191" s="2"/>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6413,7 +6416,7 @@
       <c r="U192" s="2"/>
       <c r="V192" s="2"/>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6437,7 +6440,7 @@
       <c r="U193" s="2"/>
       <c r="V193" s="2"/>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6461,7 +6464,7 @@
       <c r="U194" s="2"/>
       <c r="V194" s="2"/>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6485,7 +6488,7 @@
       <c r="U195" s="2"/>
       <c r="V195" s="2"/>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6509,7 +6512,7 @@
       <c r="U196" s="2"/>
       <c r="V196" s="2"/>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6533,7 +6536,7 @@
       <c r="U197" s="2"/>
       <c r="V197" s="2"/>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6557,7 +6560,7 @@
       <c r="U198" s="2"/>
       <c r="V198" s="2"/>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6581,7 +6584,7 @@
       <c r="U199" s="2"/>
       <c r="V199" s="2"/>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6605,7 +6608,7 @@
       <c r="U200" s="2"/>
       <c r="V200" s="2"/>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6629,7 +6632,7 @@
       <c r="U201" s="2"/>
       <c r="V201" s="2"/>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6653,7 +6656,7 @@
       <c r="U202" s="2"/>
       <c r="V202" s="2"/>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6677,7 +6680,7 @@
       <c r="U203" s="2"/>
       <c r="V203" s="2"/>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6701,7 +6704,7 @@
       <c r="U204" s="2"/>
       <c r="V204" s="2"/>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6725,7 +6728,7 @@
       <c r="U205" s="2"/>
       <c r="V205" s="2"/>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6749,7 +6752,7 @@
       <c r="U206" s="2"/>
       <c r="V206" s="2"/>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6773,7 +6776,7 @@
       <c r="U207" s="2"/>
       <c r="V207" s="2"/>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6797,7 +6800,7 @@
       <c r="U208" s="2"/>
       <c r="V208" s="2"/>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6821,7 +6824,7 @@
       <c r="U209" s="2"/>
       <c r="V209" s="2"/>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6845,7 +6848,7 @@
       <c r="U210" s="2"/>
       <c r="V210" s="2"/>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6869,7 +6872,7 @@
       <c r="U211" s="2"/>
       <c r="V211" s="2"/>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6893,7 +6896,7 @@
       <c r="U212" s="2"/>
       <c r="V212" s="2"/>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6917,7 +6920,7 @@
       <c r="U213" s="2"/>
       <c r="V213" s="2"/>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6941,7 +6944,7 @@
       <c r="U214" s="2"/>
       <c r="V214" s="2"/>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6965,7 +6968,7 @@
       <c r="U215" s="2"/>
       <c r="V215" s="2"/>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6989,7 +6992,7 @@
       <c r="U216" s="2"/>
       <c r="V216" s="2"/>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7013,7 +7016,7 @@
       <c r="U217" s="2"/>
       <c r="V217" s="2"/>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -7037,7 +7040,7 @@
       <c r="U218" s="2"/>
       <c r="V218" s="2"/>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -7061,7 +7064,7 @@
       <c r="U219" s="2"/>
       <c r="V219" s="2"/>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -7085,7 +7088,7 @@
       <c r="U220" s="2"/>
       <c r="V220" s="2"/>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -7109,7 +7112,7 @@
       <c r="U221" s="2"/>
       <c r="V221" s="2"/>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7133,7 +7136,7 @@
       <c r="U222" s="2"/>
       <c r="V222" s="2"/>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7157,7 +7160,7 @@
       <c r="U223" s="2"/>
       <c r="V223" s="2"/>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7181,7 +7184,7 @@
       <c r="U224" s="2"/>
       <c r="V224" s="2"/>
     </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7205,7 +7208,7 @@
       <c r="U225" s="2"/>
       <c r="V225" s="2"/>
     </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7229,7 +7232,7 @@
       <c r="U226" s="2"/>
       <c r="V226" s="2"/>
     </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7253,7 +7256,7 @@
       <c r="U227" s="2"/>
       <c r="V227" s="2"/>
     </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7277,7 +7280,7 @@
       <c r="U228" s="2"/>
       <c r="V228" s="2"/>
     </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7301,7 +7304,7 @@
       <c r="U229" s="2"/>
       <c r="V229" s="2"/>
     </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7325,7 +7328,7 @@
       <c r="U230" s="2"/>
       <c r="V230" s="2"/>
     </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7349,7 +7352,7 @@
       <c r="U231" s="2"/>
       <c r="V231" s="2"/>
     </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -7373,7 +7376,7 @@
       <c r="U232" s="2"/>
       <c r="V232" s="2"/>
     </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -7397,7 +7400,7 @@
       <c r="U233" s="2"/>
       <c r="V233" s="2"/>
     </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7421,7 +7424,7 @@
       <c r="U234" s="2"/>
       <c r="V234" s="2"/>
     </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7445,7 +7448,7 @@
       <c r="U235" s="2"/>
       <c r="V235" s="2"/>
     </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7469,7 +7472,7 @@
       <c r="U236" s="2"/>
       <c r="V236" s="2"/>
     </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7493,7 +7496,7 @@
       <c r="U237" s="2"/>
       <c r="V237" s="2"/>
     </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7517,7 +7520,7 @@
       <c r="U238" s="2"/>
       <c r="V238" s="2"/>
     </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7541,7 +7544,7 @@
       <c r="U239" s="2"/>
       <c r="V239" s="2"/>
     </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7565,7 +7568,7 @@
       <c r="U240" s="2"/>
       <c r="V240" s="2"/>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7589,7 +7592,7 @@
       <c r="U241" s="2"/>
       <c r="V241" s="2"/>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7613,7 +7616,7 @@
       <c r="U242" s="2"/>
       <c r="V242" s="2"/>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7637,7 +7640,7 @@
       <c r="U243" s="2"/>
       <c r="V243" s="2"/>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7661,7 +7664,7 @@
       <c r="U244" s="2"/>
       <c r="V244" s="2"/>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7685,7 +7688,7 @@
       <c r="U245" s="2"/>
       <c r="V245" s="2"/>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7709,7 +7712,7 @@
       <c r="U246" s="2"/>
       <c r="V246" s="2"/>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7733,7 +7736,7 @@
       <c r="U247" s="2"/>
       <c r="V247" s="2"/>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7757,7 +7760,7 @@
       <c r="U248" s="2"/>
       <c r="V248" s="2"/>
     </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7781,7 +7784,7 @@
       <c r="U249" s="2"/>
       <c r="V249" s="2"/>
     </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7805,7 +7808,7 @@
       <c r="U250" s="2"/>
       <c r="V250" s="2"/>
     </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7829,7 +7832,7 @@
       <c r="U251" s="2"/>
       <c r="V251" s="2"/>
     </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7853,7 +7856,7 @@
       <c r="U252" s="2"/>
       <c r="V252" s="2"/>
     </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7877,7 +7880,7 @@
       <c r="U253" s="2"/>
       <c r="V253" s="2"/>
     </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7901,7 +7904,7 @@
       <c r="U254" s="2"/>
       <c r="V254" s="2"/>
     </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7925,7 +7928,7 @@
       <c r="U255" s="2"/>
       <c r="V255" s="2"/>
     </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7949,7 +7952,7 @@
       <c r="U256" s="2"/>
       <c r="V256" s="2"/>
     </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7973,7 +7976,7 @@
       <c r="U257" s="2"/>
       <c r="V257" s="2"/>
     </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7997,7 +8000,7 @@
       <c r="U258" s="2"/>
       <c r="V258" s="2"/>
     </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -8021,7 +8024,7 @@
       <c r="U259" s="2"/>
       <c r="V259" s="2"/>
     </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -8045,7 +8048,7 @@
       <c r="U260" s="2"/>
       <c r="V260" s="2"/>
     </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -8069,7 +8072,7 @@
       <c r="U261" s="2"/>
       <c r="V261" s="2"/>
     </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -8093,7 +8096,7 @@
       <c r="U262" s="2"/>
       <c r="V262" s="2"/>
     </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -8117,7 +8120,7 @@
       <c r="U263" s="2"/>
       <c r="V263" s="2"/>
     </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -8141,7 +8144,7 @@
       <c r="U264" s="2"/>
       <c r="V264" s="2"/>
     </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -8165,7 +8168,7 @@
       <c r="U265" s="2"/>
       <c r="V265" s="2"/>
     </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -8189,7 +8192,7 @@
       <c r="U266" s="2"/>
       <c r="V266" s="2"/>
     </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -8213,7 +8216,7 @@
       <c r="U267" s="2"/>
       <c r="V267" s="2"/>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -8237,7 +8240,7 @@
       <c r="U268" s="2"/>
       <c r="V268" s="2"/>
     </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -8261,7 +8264,7 @@
       <c r="U269" s="2"/>
       <c r="V269" s="2"/>
     </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -8285,7 +8288,7 @@
       <c r="U270" s="2"/>
       <c r="V270" s="2"/>
     </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -8309,7 +8312,7 @@
       <c r="U271" s="2"/>
       <c r="V271" s="2"/>
     </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -8333,7 +8336,7 @@
       <c r="U272" s="2"/>
       <c r="V272" s="2"/>
     </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -8357,7 +8360,7 @@
       <c r="U273" s="2"/>
       <c r="V273" s="2"/>
     </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8381,7 +8384,7 @@
       <c r="U274" s="2"/>
       <c r="V274" s="2"/>
     </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8405,7 +8408,7 @@
       <c r="U275" s="2"/>
       <c r="V275" s="2"/>
     </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8429,7 +8432,7 @@
       <c r="U276" s="2"/>
       <c r="V276" s="2"/>
     </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8453,7 +8456,7 @@
       <c r="U277" s="2"/>
       <c r="V277" s="2"/>
     </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8477,7 +8480,7 @@
       <c r="U278" s="2"/>
       <c r="V278" s="2"/>
     </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8501,7 +8504,7 @@
       <c r="U279" s="2"/>
       <c r="V279" s="2"/>
     </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8525,7 +8528,7 @@
       <c r="U280" s="2"/>
       <c r="V280" s="2"/>
     </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8549,7 +8552,7 @@
       <c r="U281" s="2"/>
       <c r="V281" s="2"/>
     </row>
-    <row r="282" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8573,7 +8576,7 @@
       <c r="U282" s="2"/>
       <c r="V282" s="2"/>
     </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8597,7 +8600,7 @@
       <c r="U283" s="2"/>
       <c r="V283" s="2"/>
     </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8621,7 +8624,7 @@
       <c r="U284" s="2"/>
       <c r="V284" s="2"/>
     </row>
-    <row r="285" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8645,7 +8648,7 @@
       <c r="U285" s="2"/>
       <c r="V285" s="2"/>
     </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8669,7 +8672,7 @@
       <c r="U286" s="2"/>
       <c r="V286" s="2"/>
     </row>
-    <row r="287" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8693,7 +8696,7 @@
       <c r="U287" s="2"/>
       <c r="V287" s="2"/>
     </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8717,7 +8720,7 @@
       <c r="U288" s="2"/>
       <c r="V288" s="2"/>
     </row>
-    <row r="289" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8741,7 +8744,7 @@
       <c r="U289" s="2"/>
       <c r="V289" s="2"/>
     </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -8765,7 +8768,7 @@
       <c r="U290" s="2"/>
       <c r="V290" s="2"/>
     </row>
-    <row r="291" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -8789,7 +8792,7 @@
       <c r="U291" s="2"/>
       <c r="V291" s="2"/>
     </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -8813,7 +8816,7 @@
       <c r="U292" s="2"/>
       <c r="V292" s="2"/>
     </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -8837,7 +8840,7 @@
       <c r="U293" s="2"/>
       <c r="V293" s="2"/>
     </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -8861,7 +8864,7 @@
       <c r="U294" s="2"/>
       <c r="V294" s="2"/>
     </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -8885,7 +8888,7 @@
       <c r="U295" s="2"/>
       <c r="V295" s="2"/>
     </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -8909,7 +8912,7 @@
       <c r="U296" s="2"/>
       <c r="V296" s="2"/>
     </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -8933,7 +8936,7 @@
       <c r="U297" s="2"/>
       <c r="V297" s="2"/>
     </row>
-    <row r="298" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -8957,7 +8960,7 @@
       <c r="U298" s="2"/>
       <c r="V298" s="2"/>
     </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -8981,7 +8984,7 @@
       <c r="U299" s="2"/>
       <c r="V299" s="2"/>
     </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -9005,7 +9008,7 @@
       <c r="U300" s="2"/>
       <c r="V300" s="2"/>
     </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -9029,7 +9032,7 @@
       <c r="U301" s="2"/>
       <c r="V301" s="2"/>
     </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -9053,7 +9056,7 @@
       <c r="U302" s="2"/>
       <c r="V302" s="2"/>
     </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -9077,7 +9080,7 @@
       <c r="U303" s="2"/>
       <c r="V303" s="2"/>
     </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -9101,7 +9104,7 @@
       <c r="U304" s="2"/>
       <c r="V304" s="2"/>
     </row>
-    <row r="305" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -9125,7 +9128,7 @@
       <c r="U305" s="2"/>
       <c r="V305" s="2"/>
     </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -9149,7 +9152,7 @@
       <c r="U306" s="2"/>
       <c r="V306" s="2"/>
     </row>
-    <row r="307" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -9173,7 +9176,7 @@
       <c r="U307" s="2"/>
       <c r="V307" s="2"/>
     </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -9197,7 +9200,7 @@
       <c r="U308" s="2"/>
       <c r="V308" s="2"/>
     </row>
-    <row r="309" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -9221,7 +9224,7 @@
       <c r="U309" s="2"/>
       <c r="V309" s="2"/>
     </row>
-    <row r="310" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -9245,7 +9248,7 @@
       <c r="U310" s="2"/>
       <c r="V310" s="2"/>
     </row>
-    <row r="311" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -9269,7 +9272,7 @@
       <c r="U311" s="2"/>
       <c r="V311" s="2"/>
     </row>
-    <row r="312" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -9293,7 +9296,7 @@
       <c r="U312" s="2"/>
       <c r="V312" s="2"/>
     </row>
-    <row r="313" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -9317,7 +9320,7 @@
       <c r="U313" s="2"/>
       <c r="V313" s="2"/>
     </row>
-    <row r="314" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -9341,7 +9344,7 @@
       <c r="U314" s="2"/>
       <c r="V314" s="2"/>
     </row>
-    <row r="315" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -9365,7 +9368,7 @@
       <c r="U315" s="2"/>
       <c r="V315" s="2"/>
     </row>
-    <row r="316" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -9389,7 +9392,7 @@
       <c r="U316" s="2"/>
       <c r="V316" s="2"/>
     </row>
-    <row r="317" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -9413,7 +9416,7 @@
       <c r="U317" s="2"/>
       <c r="V317" s="2"/>
     </row>
-    <row r="318" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -9437,7 +9440,7 @@
       <c r="U318" s="2"/>
       <c r="V318" s="2"/>
     </row>
-    <row r="319" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -9461,7 +9464,7 @@
       <c r="U319" s="2"/>
       <c r="V319" s="2"/>
     </row>
-    <row r="320" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -9485,7 +9488,7 @@
       <c r="U320" s="2"/>
       <c r="V320" s="2"/>
     </row>
-    <row r="321" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -9509,7 +9512,7 @@
       <c r="U321" s="2"/>
       <c r="V321" s="2"/>
     </row>
-    <row r="322" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -9533,7 +9536,7 @@
       <c r="U322" s="2"/>
       <c r="V322" s="2"/>
     </row>
-    <row r="323" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -9557,7 +9560,7 @@
       <c r="U323" s="2"/>
       <c r="V323" s="2"/>
     </row>
-    <row r="324" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -9581,7 +9584,7 @@
       <c r="U324" s="2"/>
       <c r="V324" s="2"/>
     </row>
-    <row r="325" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -9605,7 +9608,7 @@
       <c r="U325" s="2"/>
       <c r="V325" s="2"/>
     </row>
-    <row r="326" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -9629,7 +9632,7 @@
       <c r="U326" s="2"/>
       <c r="V326" s="2"/>
     </row>
-    <row r="327" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -9653,7 +9656,7 @@
       <c r="U327" s="2"/>
       <c r="V327" s="2"/>
     </row>
-    <row r="328" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -9677,7 +9680,7 @@
       <c r="U328" s="2"/>
       <c r="V328" s="2"/>
     </row>
-    <row r="329" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -9701,7 +9704,7 @@
       <c r="U329" s="2"/>
       <c r="V329" s="2"/>
     </row>
-    <row r="330" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -9725,7 +9728,7 @@
       <c r="U330" s="2"/>
       <c r="V330" s="2"/>
     </row>
-    <row r="331" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -9749,7 +9752,7 @@
       <c r="U331" s="2"/>
       <c r="V331" s="2"/>
     </row>
-    <row r="332" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -9773,7 +9776,7 @@
       <c r="U332" s="2"/>
       <c r="V332" s="2"/>
     </row>
-    <row r="333" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -9797,7 +9800,7 @@
       <c r="U333" s="2"/>
       <c r="V333" s="2"/>
     </row>
-    <row r="334" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -9821,7 +9824,7 @@
       <c r="U334" s="2"/>
       <c r="V334" s="2"/>
     </row>
-    <row r="335" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -9845,7 +9848,7 @@
       <c r="U335" s="2"/>
       <c r="V335" s="2"/>
     </row>
-    <row r="336" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -9869,7 +9872,7 @@
       <c r="U336" s="2"/>
       <c r="V336" s="2"/>
     </row>
-    <row r="337" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -9893,7 +9896,7 @@
       <c r="U337" s="2"/>
       <c r="V337" s="2"/>
     </row>
-    <row r="338" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -9917,7 +9920,7 @@
       <c r="U338" s="2"/>
       <c r="V338" s="2"/>
     </row>
-    <row r="339" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -9941,7 +9944,7 @@
       <c r="U339" s="2"/>
       <c r="V339" s="2"/>
     </row>
-    <row r="340" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -9965,7 +9968,7 @@
       <c r="U340" s="2"/>
       <c r="V340" s="2"/>
     </row>
-    <row r="341" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -9989,7 +9992,7 @@
       <c r="U341" s="2"/>
       <c r="V341" s="2"/>
     </row>
-    <row r="342" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -10013,7 +10016,7 @@
       <c r="U342" s="2"/>
       <c r="V342" s="2"/>
     </row>
-    <row r="343" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -10037,7 +10040,7 @@
       <c r="U343" s="2"/>
       <c r="V343" s="2"/>
     </row>
-    <row r="344" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -10061,7 +10064,7 @@
       <c r="U344" s="2"/>
       <c r="V344" s="2"/>
     </row>
-    <row r="345" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -10085,7 +10088,7 @@
       <c r="U345" s="2"/>
       <c r="V345" s="2"/>
     </row>
-    <row r="346" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -10109,7 +10112,7 @@
       <c r="U346" s="2"/>
       <c r="V346" s="2"/>
     </row>
-    <row r="347" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -10133,7 +10136,7 @@
       <c r="U347" s="2"/>
       <c r="V347" s="2"/>
     </row>
-    <row r="348" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -10157,7 +10160,7 @@
       <c r="U348" s="2"/>
       <c r="V348" s="2"/>
     </row>
-    <row r="349" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -10181,7 +10184,7 @@
       <c r="U349" s="2"/>
       <c r="V349" s="2"/>
     </row>
-    <row r="350" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -10205,7 +10208,7 @@
       <c r="U350" s="2"/>
       <c r="V350" s="2"/>
     </row>
-    <row r="351" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -10229,7 +10232,7 @@
       <c r="U351" s="2"/>
       <c r="V351" s="2"/>
     </row>
-    <row r="352" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -10253,7 +10256,7 @@
       <c r="U352" s="2"/>
       <c r="V352" s="2"/>
     </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -10277,7 +10280,7 @@
       <c r="U353" s="2"/>
       <c r="V353" s="2"/>
     </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -10301,7 +10304,7 @@
       <c r="U354" s="2"/>
       <c r="V354" s="2"/>
     </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -10325,7 +10328,7 @@
       <c r="U355" s="2"/>
       <c r="V355" s="2"/>
     </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -10349,7 +10352,7 @@
       <c r="U356" s="2"/>
       <c r="V356" s="2"/>
     </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -10373,7 +10376,7 @@
       <c r="U357" s="2"/>
       <c r="V357" s="2"/>
     </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -10397,7 +10400,7 @@
       <c r="U358" s="2"/>
       <c r="V358" s="2"/>
     </row>
-    <row r="359" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -10421,7 +10424,7 @@
       <c r="U359" s="2"/>
       <c r="V359" s="2"/>
     </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -10445,7 +10448,7 @@
       <c r="U360" s="2"/>
       <c r="V360" s="2"/>
     </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -10469,7 +10472,7 @@
       <c r="U361" s="2"/>
       <c r="V361" s="2"/>
     </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -10493,7 +10496,7 @@
       <c r="U362" s="2"/>
       <c r="V362" s="2"/>
     </row>
-    <row r="363" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -10517,7 +10520,7 @@
       <c r="U363" s="2"/>
       <c r="V363" s="2"/>
     </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -10541,7 +10544,7 @@
       <c r="U364" s="2"/>
       <c r="V364" s="2"/>
     </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -10565,7 +10568,7 @@
       <c r="U365" s="2"/>
       <c r="V365" s="2"/>
     </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -10589,7 +10592,7 @@
       <c r="U366" s="2"/>
       <c r="V366" s="2"/>
     </row>
-    <row r="367" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -10613,7 +10616,7 @@
       <c r="U367" s="2"/>
       <c r="V367" s="2"/>
     </row>
-    <row r="368" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -10637,7 +10640,7 @@
       <c r="U368" s="2"/>
       <c r="V368" s="2"/>
     </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -10661,7 +10664,7 @@
       <c r="U369" s="2"/>
       <c r="V369" s="2"/>
     </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -10685,7 +10688,7 @@
       <c r="U370" s="2"/>
       <c r="V370" s="2"/>
     </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -10709,7 +10712,7 @@
       <c r="U371" s="2"/>
       <c r="V371" s="2"/>
     </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -10733,7 +10736,7 @@
       <c r="U372" s="2"/>
       <c r="V372" s="2"/>
     </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -10757,7 +10760,7 @@
       <c r="U373" s="2"/>
       <c r="V373" s="2"/>
     </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -10781,7 +10784,7 @@
       <c r="U374" s="2"/>
       <c r="V374" s="2"/>
     </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -10805,7 +10808,7 @@
       <c r="U375" s="2"/>
       <c r="V375" s="2"/>
     </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -10829,7 +10832,7 @@
       <c r="U376" s="2"/>
       <c r="V376" s="2"/>
     </row>
-    <row r="377" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -10853,7 +10856,7 @@
       <c r="U377" s="2"/>
       <c r="V377" s="2"/>
     </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -10877,7 +10880,7 @@
       <c r="U378" s="2"/>
       <c r="V378" s="2"/>
     </row>
-    <row r="379" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -10901,7 +10904,7 @@
       <c r="U379" s="2"/>
       <c r="V379" s="2"/>
     </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -10925,7 +10928,7 @@
       <c r="U380" s="2"/>
       <c r="V380" s="2"/>
     </row>
-    <row r="381" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -10949,7 +10952,7 @@
       <c r="U381" s="2"/>
       <c r="V381" s="2"/>
     </row>
-    <row r="382" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -10973,7 +10976,7 @@
       <c r="U382" s="2"/>
       <c r="V382" s="2"/>
     </row>
-    <row r="383" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -10997,7 +11000,7 @@
       <c r="U383" s="2"/>
       <c r="V383" s="2"/>
     </row>
-    <row r="384" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -11021,7 +11024,7 @@
       <c r="U384" s="2"/>
       <c r="V384" s="2"/>
     </row>
-    <row r="385" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -11045,7 +11048,7 @@
       <c r="U385" s="2"/>
       <c r="V385" s="2"/>
     </row>
-    <row r="386" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -11069,7 +11072,7 @@
       <c r="U386" s="2"/>
       <c r="V386" s="2"/>
     </row>
-    <row r="387" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -11093,7 +11096,7 @@
       <c r="U387" s="2"/>
       <c r="V387" s="2"/>
     </row>
-    <row r="388" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -11117,7 +11120,7 @@
       <c r="U388" s="2"/>
       <c r="V388" s="2"/>
     </row>
-    <row r="389" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -11141,7 +11144,7 @@
       <c r="U389" s="2"/>
       <c r="V389" s="2"/>
     </row>
-    <row r="390" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -11165,7 +11168,7 @@
       <c r="U390" s="2"/>
       <c r="V390" s="2"/>
     </row>
-    <row r="391" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -11189,7 +11192,7 @@
       <c r="U391" s="2"/>
       <c r="V391" s="2"/>
     </row>
-    <row r="392" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -11213,7 +11216,7 @@
       <c r="U392" s="2"/>
       <c r="V392" s="2"/>
     </row>
-    <row r="393" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -11237,7 +11240,7 @@
       <c r="U393" s="2"/>
       <c r="V393" s="2"/>
     </row>
-    <row r="394" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -11261,7 +11264,7 @@
       <c r="U394" s="2"/>
       <c r="V394" s="2"/>
     </row>
-    <row r="395" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -11285,7 +11288,7 @@
       <c r="U395" s="2"/>
       <c r="V395" s="2"/>
     </row>
-    <row r="396" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -11309,7 +11312,7 @@
       <c r="U396" s="2"/>
       <c r="V396" s="2"/>
     </row>
-    <row r="397" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -11333,7 +11336,7 @@
       <c r="U397" s="2"/>
       <c r="V397" s="2"/>
     </row>
-    <row r="398" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -11357,7 +11360,7 @@
       <c r="U398" s="2"/>
       <c r="V398" s="2"/>
     </row>
-    <row r="399" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -11381,7 +11384,7 @@
       <c r="U399" s="2"/>
       <c r="V399" s="2"/>
     </row>
-    <row r="400" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -11405,7 +11408,7 @@
       <c r="U400" s="2"/>
       <c r="V400" s="2"/>
     </row>
-    <row r="401" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -11429,7 +11432,7 @@
       <c r="U401" s="2"/>
       <c r="V401" s="2"/>
     </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -11453,7 +11456,7 @@
       <c r="U402" s="2"/>
       <c r="V402" s="2"/>
     </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -11477,7 +11480,7 @@
       <c r="U403" s="2"/>
       <c r="V403" s="2"/>
     </row>
-    <row r="404" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -11501,7 +11504,7 @@
       <c r="U404" s="2"/>
       <c r="V404" s="2"/>
     </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -11525,7 +11528,7 @@
       <c r="U405" s="2"/>
       <c r="V405" s="2"/>
     </row>
-    <row r="406" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -11549,7 +11552,7 @@
       <c r="U406" s="2"/>
       <c r="V406" s="2"/>
     </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -11573,7 +11576,7 @@
       <c r="U407" s="2"/>
       <c r="V407" s="2"/>
     </row>
-    <row r="408" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -11597,7 +11600,7 @@
       <c r="U408" s="2"/>
       <c r="V408" s="2"/>
     </row>
-    <row r="409" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -11621,7 +11624,7 @@
       <c r="U409" s="2"/>
       <c r="V409" s="2"/>
     </row>
-    <row r="410" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -11645,7 +11648,7 @@
       <c r="U410" s="2"/>
       <c r="V410" s="2"/>
     </row>
-    <row r="411" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -11669,7 +11672,7 @@
       <c r="U411" s="2"/>
       <c r="V411" s="2"/>
     </row>
-    <row r="412" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -11693,7 +11696,7 @@
       <c r="U412" s="2"/>
       <c r="V412" s="2"/>
     </row>
-    <row r="413" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -11717,7 +11720,7 @@
       <c r="U413" s="2"/>
       <c r="V413" s="2"/>
     </row>
-    <row r="414" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -11741,7 +11744,7 @@
       <c r="U414" s="2"/>
       <c r="V414" s="2"/>
     </row>
-    <row r="415" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -11765,7 +11768,7 @@
       <c r="U415" s="2"/>
       <c r="V415" s="2"/>
     </row>
-    <row r="416" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -11789,7 +11792,7 @@
       <c r="U416" s="2"/>
       <c r="V416" s="2"/>
     </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -11813,7 +11816,7 @@
       <c r="U417" s="2"/>
       <c r="V417" s="2"/>
     </row>
-    <row r="418" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -11837,7 +11840,7 @@
       <c r="U418" s="2"/>
       <c r="V418" s="2"/>
     </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -11861,7 +11864,7 @@
       <c r="U419" s="2"/>
       <c r="V419" s="2"/>
     </row>
-    <row r="420" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -11885,7 +11888,7 @@
       <c r="U420" s="2"/>
       <c r="V420" s="2"/>
     </row>
-    <row r="421" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -11909,7 +11912,7 @@
       <c r="U421" s="2"/>
       <c r="V421" s="2"/>
     </row>
-    <row r="422" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -11933,7 +11936,7 @@
       <c r="U422" s="2"/>
       <c r="V422" s="2"/>
     </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -11957,7 +11960,7 @@
       <c r="U423" s="2"/>
       <c r="V423" s="2"/>
     </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -11981,7 +11984,7 @@
       <c r="U424" s="2"/>
       <c r="V424" s="2"/>
     </row>
-    <row r="425" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -12005,7 +12008,7 @@
       <c r="U425" s="2"/>
       <c r="V425" s="2"/>
     </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -12029,7 +12032,7 @@
       <c r="U426" s="2"/>
       <c r="V426" s="2"/>
     </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -12053,7 +12056,7 @@
       <c r="U427" s="2"/>
       <c r="V427" s="2"/>
     </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -12077,7 +12080,7 @@
       <c r="U428" s="2"/>
       <c r="V428" s="2"/>
     </row>
-    <row r="429" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -12101,7 +12104,7 @@
       <c r="U429" s="2"/>
       <c r="V429" s="2"/>
     </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -12125,7 +12128,7 @@
       <c r="U430" s="2"/>
       <c r="V430" s="2"/>
     </row>
-    <row r="431" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -12149,7 +12152,7 @@
       <c r="U431" s="2"/>
       <c r="V431" s="2"/>
     </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -12173,7 +12176,7 @@
       <c r="U432" s="2"/>
       <c r="V432" s="2"/>
     </row>
-    <row r="433" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -12197,7 +12200,7 @@
       <c r="U433" s="2"/>
       <c r="V433" s="2"/>
     </row>
-    <row r="434" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -12221,7 +12224,7 @@
       <c r="U434" s="2"/>
       <c r="V434" s="2"/>
     </row>
-    <row r="435" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -12245,7 +12248,7 @@
       <c r="U435" s="2"/>
       <c r="V435" s="2"/>
     </row>
-    <row r="436" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -12269,7 +12272,7 @@
       <c r="U436" s="2"/>
       <c r="V436" s="2"/>
     </row>
-    <row r="437" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -12293,7 +12296,7 @@
       <c r="U437" s="2"/>
       <c r="V437" s="2"/>
     </row>
-    <row r="438" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -12317,7 +12320,7 @@
       <c r="U438" s="2"/>
       <c r="V438" s="2"/>
     </row>
-    <row r="439" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -12341,7 +12344,7 @@
       <c r="U439" s="2"/>
       <c r="V439" s="2"/>
     </row>
-    <row r="440" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -12365,7 +12368,7 @@
       <c r="U440" s="2"/>
       <c r="V440" s="2"/>
     </row>
-    <row r="441" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -12389,7 +12392,7 @@
       <c r="U441" s="2"/>
       <c r="V441" s="2"/>
     </row>
-    <row r="442" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -12413,7 +12416,7 @@
       <c r="U442" s="2"/>
       <c r="V442" s="2"/>
     </row>
-    <row r="443" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -12437,7 +12440,7 @@
       <c r="U443" s="2"/>
       <c r="V443" s="2"/>
     </row>
-    <row r="444" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -12461,7 +12464,7 @@
       <c r="U444" s="2"/>
       <c r="V444" s="2"/>
     </row>
-    <row r="445" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -12485,7 +12488,7 @@
       <c r="U445" s="2"/>
       <c r="V445" s="2"/>
     </row>
-    <row r="446" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -12509,7 +12512,7 @@
       <c r="U446" s="2"/>
       <c r="V446" s="2"/>
     </row>
-    <row r="447" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -12533,7 +12536,7 @@
       <c r="U447" s="2"/>
       <c r="V447" s="2"/>
     </row>
-    <row r="448" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -12557,7 +12560,7 @@
       <c r="U448" s="2"/>
       <c r="V448" s="2"/>
     </row>
-    <row r="449" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -12581,7 +12584,7 @@
       <c r="U449" s="2"/>
       <c r="V449" s="2"/>
     </row>
-    <row r="450" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -12605,7 +12608,7 @@
       <c r="U450" s="2"/>
       <c r="V450" s="2"/>
     </row>
-    <row r="451" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -12629,7 +12632,7 @@
       <c r="U451" s="2"/>
       <c r="V451" s="2"/>
     </row>
-    <row r="452" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -12653,7 +12656,7 @@
       <c r="U452" s="2"/>
       <c r="V452" s="2"/>
     </row>
-    <row r="453" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -12677,7 +12680,7 @@
       <c r="U453" s="2"/>
       <c r="V453" s="2"/>
     </row>
-    <row r="454" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -12701,7 +12704,7 @@
       <c r="U454" s="2"/>
       <c r="V454" s="2"/>
     </row>
-    <row r="455" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -12725,7 +12728,7 @@
       <c r="U455" s="2"/>
       <c r="V455" s="2"/>
     </row>
-    <row r="456" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -12749,7 +12752,7 @@
       <c r="U456" s="2"/>
       <c r="V456" s="2"/>
     </row>
-    <row r="457" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -12773,7 +12776,7 @@
       <c r="U457" s="2"/>
       <c r="V457" s="2"/>
     </row>
-    <row r="458" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -12797,7 +12800,7 @@
       <c r="U458" s="2"/>
       <c r="V458" s="2"/>
     </row>
-    <row r="459" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -12821,7 +12824,7 @@
       <c r="U459" s="2"/>
       <c r="V459" s="2"/>
     </row>
-    <row r="460" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -12845,7 +12848,7 @@
       <c r="U460" s="2"/>
       <c r="V460" s="2"/>
     </row>
-    <row r="461" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -12869,7 +12872,7 @@
       <c r="U461" s="2"/>
       <c r="V461" s="2"/>
     </row>
-    <row r="462" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -12893,7 +12896,7 @@
       <c r="U462" s="2"/>
       <c r="V462" s="2"/>
     </row>
-    <row r="463" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -12917,7 +12920,7 @@
       <c r="U463" s="2"/>
       <c r="V463" s="2"/>
     </row>
-    <row r="464" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -12941,7 +12944,7 @@
       <c r="U464" s="2"/>
       <c r="V464" s="2"/>
     </row>
-    <row r="465" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -12965,7 +12968,7 @@
       <c r="U465" s="2"/>
       <c r="V465" s="2"/>
     </row>
-    <row r="466" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -12989,7 +12992,7 @@
       <c r="U466" s="2"/>
       <c r="V466" s="2"/>
     </row>
-    <row r="467" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -13013,7 +13016,7 @@
       <c r="U467" s="2"/>
       <c r="V467" s="2"/>
     </row>
-    <row r="468" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -13037,7 +13040,7 @@
       <c r="U468" s="2"/>
       <c r="V468" s="2"/>
     </row>
-    <row r="469" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -13061,7 +13064,7 @@
       <c r="U469" s="2"/>
       <c r="V469" s="2"/>
     </row>
-    <row r="470" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -13085,7 +13088,7 @@
       <c r="U470" s="2"/>
       <c r="V470" s="2"/>
     </row>
-    <row r="471" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -13109,7 +13112,7 @@
       <c r="U471" s="2"/>
       <c r="V471" s="2"/>
     </row>
-    <row r="472" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -13133,7 +13136,7 @@
       <c r="U472" s="2"/>
       <c r="V472" s="2"/>
     </row>
-    <row r="473" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -13157,7 +13160,7 @@
       <c r="U473" s="2"/>
       <c r="V473" s="2"/>
     </row>
-    <row r="474" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -13181,7 +13184,7 @@
       <c r="U474" s="2"/>
       <c r="V474" s="2"/>
     </row>
-    <row r="475" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -13205,7 +13208,7 @@
       <c r="U475" s="2"/>
       <c r="V475" s="2"/>
     </row>
-    <row r="476" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -13229,7 +13232,7 @@
       <c r="U476" s="2"/>
       <c r="V476" s="2"/>
     </row>
-    <row r="477" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -13253,7 +13256,7 @@
       <c r="U477" s="2"/>
       <c r="V477" s="2"/>
     </row>
-    <row r="478" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -13277,7 +13280,7 @@
       <c r="U478" s="2"/>
       <c r="V478" s="2"/>
     </row>
-    <row r="479" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -13301,7 +13304,7 @@
       <c r="U479" s="2"/>
       <c r="V479" s="2"/>
     </row>
-    <row r="480" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -13325,7 +13328,7 @@
       <c r="U480" s="2"/>
       <c r="V480" s="2"/>
     </row>
-    <row r="481" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -13349,7 +13352,7 @@
       <c r="U481" s="2"/>
       <c r="V481" s="2"/>
     </row>
-    <row r="482" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -13373,7 +13376,7 @@
       <c r="U482" s="2"/>
       <c r="V482" s="2"/>
     </row>
-    <row r="483" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -13397,7 +13400,7 @@
       <c r="U483" s="2"/>
       <c r="V483" s="2"/>
     </row>
-    <row r="484" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -13421,7 +13424,7 @@
       <c r="U484" s="2"/>
       <c r="V484" s="2"/>
     </row>
-    <row r="485" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -13445,7 +13448,7 @@
       <c r="U485" s="2"/>
       <c r="V485" s="2"/>
     </row>
-    <row r="486" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -13469,7 +13472,7 @@
       <c r="U486" s="2"/>
       <c r="V486" s="2"/>
     </row>
-    <row r="487" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -13493,7 +13496,7 @@
       <c r="U487" s="2"/>
       <c r="V487" s="2"/>
     </row>
-    <row r="488" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -13517,7 +13520,7 @@
       <c r="U488" s="2"/>
       <c r="V488" s="2"/>
     </row>
-    <row r="489" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -13541,7 +13544,7 @@
       <c r="U489" s="2"/>
       <c r="V489" s="2"/>
     </row>
-    <row r="490" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -13565,7 +13568,7 @@
       <c r="U490" s="2"/>
       <c r="V490" s="2"/>
     </row>
-    <row r="491" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -13589,7 +13592,7 @@
       <c r="U491" s="2"/>
       <c r="V491" s="2"/>
     </row>
-    <row r="492" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -13613,7 +13616,7 @@
       <c r="U492" s="2"/>
       <c r="V492" s="2"/>
     </row>
-    <row r="493" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -13637,7 +13640,7 @@
       <c r="U493" s="2"/>
       <c r="V493" s="2"/>
     </row>
-    <row r="494" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -13661,7 +13664,7 @@
       <c r="U494" s="2"/>
       <c r="V494" s="2"/>
     </row>
-    <row r="495" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -13685,7 +13688,7 @@
       <c r="U495" s="2"/>
       <c r="V495" s="2"/>
     </row>
-    <row r="496" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -13709,7 +13712,7 @@
       <c r="U496" s="2"/>
       <c r="V496" s="2"/>
     </row>
-    <row r="497" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -13733,7 +13736,7 @@
       <c r="U497" s="2"/>
       <c r="V497" s="2"/>
     </row>
-    <row r="498" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -13757,7 +13760,7 @@
       <c r="U498" s="2"/>
       <c r="V498" s="2"/>
     </row>
-    <row r="499" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -13781,7 +13784,7 @@
       <c r="U499" s="2"/>
       <c r="V499" s="2"/>
     </row>
-    <row r="500" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -13805,7 +13808,7 @@
       <c r="U500" s="2"/>
       <c r="V500" s="2"/>
     </row>
-    <row r="501" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -13829,7 +13832,7 @@
       <c r="U501" s="2"/>
       <c r="V501" s="2"/>
     </row>
-    <row r="502" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -13853,7 +13856,7 @@
       <c r="U502" s="2"/>
       <c r="V502" s="2"/>
     </row>
-    <row r="503" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -13877,7 +13880,7 @@
       <c r="U503" s="2"/>
       <c r="V503" s="2"/>
     </row>
-    <row r="504" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -13901,7 +13904,7 @@
       <c r="U504" s="2"/>
       <c r="V504" s="2"/>
     </row>
-    <row r="505" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -13925,7 +13928,7 @@
       <c r="U505" s="2"/>
       <c r="V505" s="2"/>
     </row>
-    <row r="506" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -13949,7 +13952,7 @@
       <c r="U506" s="2"/>
       <c r="V506" s="2"/>
     </row>
-    <row r="507" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -13973,7 +13976,7 @@
       <c r="U507" s="2"/>
       <c r="V507" s="2"/>
     </row>
-    <row r="508" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -13997,7 +14000,7 @@
       <c r="U508" s="2"/>
       <c r="V508" s="2"/>
     </row>
-    <row r="509" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -14021,7 +14024,7 @@
       <c r="U509" s="2"/>
       <c r="V509" s="2"/>
     </row>
-    <row r="510" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -14045,7 +14048,7 @@
       <c r="U510" s="2"/>
       <c r="V510" s="2"/>
     </row>
-    <row r="511" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -14069,7 +14072,7 @@
       <c r="U511" s="2"/>
       <c r="V511" s="2"/>
     </row>
-    <row r="512" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -14093,7 +14096,7 @@
       <c r="U512" s="2"/>
       <c r="V512" s="2"/>
     </row>
-    <row r="513" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -14117,7 +14120,7 @@
       <c r="U513" s="2"/>
       <c r="V513" s="2"/>
     </row>
-    <row r="514" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -14141,7 +14144,7 @@
       <c r="U514" s="2"/>
       <c r="V514" s="2"/>
     </row>
-    <row r="515" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -14165,7 +14168,7 @@
       <c r="U515" s="2"/>
       <c r="V515" s="2"/>
     </row>
-    <row r="516" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -14189,7 +14192,7 @@
       <c r="U516" s="2"/>
       <c r="V516" s="2"/>
     </row>
-    <row r="517" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -14213,7 +14216,7 @@
       <c r="U517" s="2"/>
       <c r="V517" s="2"/>
     </row>
-    <row r="518" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -14237,7 +14240,7 @@
       <c r="U518" s="2"/>
       <c r="V518" s="2"/>
     </row>
-    <row r="519" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -14261,7 +14264,7 @@
       <c r="U519" s="2"/>
       <c r="V519" s="2"/>
     </row>
-    <row r="520" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -14285,7 +14288,7 @@
       <c r="U520" s="2"/>
       <c r="V520" s="2"/>
     </row>
-    <row r="521" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -14309,7 +14312,7 @@
       <c r="U521" s="2"/>
       <c r="V521" s="2"/>
     </row>
-    <row r="522" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -14333,7 +14336,7 @@
       <c r="U522" s="2"/>
       <c r="V522" s="2"/>
     </row>
-    <row r="523" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -14357,7 +14360,7 @@
       <c r="U523" s="2"/>
       <c r="V523" s="2"/>
     </row>
-    <row r="524" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -14381,7 +14384,7 @@
       <c r="U524" s="2"/>
       <c r="V524" s="2"/>
     </row>
-    <row r="525" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -14405,7 +14408,7 @@
       <c r="U525" s="2"/>
       <c r="V525" s="2"/>
     </row>
-    <row r="526" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -14429,7 +14432,7 @@
       <c r="U526" s="2"/>
       <c r="V526" s="2"/>
     </row>
-    <row r="527" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -14453,7 +14456,7 @@
       <c r="U527" s="2"/>
       <c r="V527" s="2"/>
     </row>
-    <row r="528" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -14477,7 +14480,7 @@
       <c r="U528" s="2"/>
       <c r="V528" s="2"/>
     </row>
-    <row r="529" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -14501,7 +14504,7 @@
       <c r="U529" s="2"/>
       <c r="V529" s="2"/>
     </row>
-    <row r="530" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -14525,7 +14528,7 @@
       <c r="U530" s="2"/>
       <c r="V530" s="2"/>
     </row>
-    <row r="531" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -14549,7 +14552,7 @@
       <c r="U531" s="2"/>
       <c r="V531" s="2"/>
     </row>
-    <row r="532" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -14573,7 +14576,7 @@
       <c r="U532" s="2"/>
       <c r="V532" s="2"/>
     </row>
-    <row r="533" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -14597,7 +14600,7 @@
       <c r="U533" s="2"/>
       <c r="V533" s="2"/>
     </row>
-    <row r="534" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -14621,7 +14624,7 @@
       <c r="U534" s="2"/>
       <c r="V534" s="2"/>
     </row>
-    <row r="535" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -14645,7 +14648,7 @@
       <c r="U535" s="2"/>
       <c r="V535" s="2"/>
     </row>
-    <row r="536" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -14669,7 +14672,7 @@
       <c r="U536" s="2"/>
       <c r="V536" s="2"/>
     </row>
-    <row r="537" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -14693,7 +14696,7 @@
       <c r="U537" s="2"/>
       <c r="V537" s="2"/>
     </row>
-    <row r="538" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -14717,7 +14720,7 @@
       <c r="U538" s="2"/>
       <c r="V538" s="2"/>
     </row>
-    <row r="539" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -14741,7 +14744,7 @@
       <c r="U539" s="2"/>
       <c r="V539" s="2"/>
     </row>
-    <row r="540" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -14765,7 +14768,7 @@
       <c r="U540" s="2"/>
       <c r="V540" s="2"/>
     </row>
-    <row r="541" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -14789,7 +14792,7 @@
       <c r="U541" s="2"/>
       <c r="V541" s="2"/>
     </row>
-    <row r="542" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -14813,7 +14816,7 @@
       <c r="U542" s="2"/>
       <c r="V542" s="2"/>
     </row>
-    <row r="543" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -14837,7 +14840,7 @@
       <c r="U543" s="2"/>
       <c r="V543" s="2"/>
     </row>
-    <row r="544" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -14861,7 +14864,7 @@
       <c r="U544" s="2"/>
       <c r="V544" s="2"/>
     </row>
-    <row r="545" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -14885,7 +14888,7 @@
       <c r="U545" s="2"/>
       <c r="V545" s="2"/>
     </row>
-    <row r="546" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -14909,7 +14912,7 @@
       <c r="U546" s="2"/>
       <c r="V546" s="2"/>
     </row>
-    <row r="547" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -14933,7 +14936,7 @@
       <c r="U547" s="2"/>
       <c r="V547" s="2"/>
     </row>
-    <row r="548" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -14957,7 +14960,7 @@
       <c r="U548" s="2"/>
       <c r="V548" s="2"/>
     </row>
-    <row r="549" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -14981,7 +14984,7 @@
       <c r="U549" s="2"/>
       <c r="V549" s="2"/>
     </row>
-    <row r="550" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -15005,7 +15008,7 @@
       <c r="U550" s="2"/>
       <c r="V550" s="2"/>
     </row>
-    <row r="551" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -15029,7 +15032,7 @@
       <c r="U551" s="2"/>
       <c r="V551" s="2"/>
     </row>
-    <row r="552" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -15053,7 +15056,7 @@
       <c r="U552" s="2"/>
       <c r="V552" s="2"/>
     </row>
-    <row r="553" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -15077,7 +15080,7 @@
       <c r="U553" s="2"/>
       <c r="V553" s="2"/>
     </row>
-    <row r="554" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -15101,7 +15104,7 @@
       <c r="U554" s="2"/>
       <c r="V554" s="2"/>
     </row>
-    <row r="555" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -15125,7 +15128,7 @@
       <c r="U555" s="2"/>
       <c r="V555" s="2"/>
     </row>
-    <row r="556" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -15149,7 +15152,7 @@
       <c r="U556" s="2"/>
       <c r="V556" s="2"/>
     </row>
-    <row r="557" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -15173,7 +15176,7 @@
       <c r="U557" s="2"/>
       <c r="V557" s="2"/>
     </row>
-    <row r="558" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -15197,7 +15200,7 @@
       <c r="U558" s="2"/>
       <c r="V558" s="2"/>
     </row>
-    <row r="559" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -15221,7 +15224,7 @@
       <c r="U559" s="2"/>
       <c r="V559" s="2"/>
     </row>
-    <row r="560" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -15245,7 +15248,7 @@
       <c r="U560" s="2"/>
       <c r="V560" s="2"/>
     </row>
-    <row r="561" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -15269,7 +15272,7 @@
       <c r="U561" s="2"/>
       <c r="V561" s="2"/>
     </row>
-    <row r="562" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -15293,7 +15296,7 @@
       <c r="U562" s="2"/>
       <c r="V562" s="2"/>
     </row>
-    <row r="563" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -15317,7 +15320,7 @@
       <c r="U563" s="2"/>
       <c r="V563" s="2"/>
     </row>
-    <row r="564" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -15341,7 +15344,7 @@
       <c r="U564" s="2"/>
       <c r="V564" s="2"/>
     </row>
-    <row r="565" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -15365,7 +15368,7 @@
       <c r="U565" s="2"/>
       <c r="V565" s="2"/>
     </row>
-    <row r="566" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -15389,7 +15392,7 @@
       <c r="U566" s="2"/>
       <c r="V566" s="2"/>
     </row>
-    <row r="567" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -15413,7 +15416,7 @@
       <c r="U567" s="2"/>
       <c r="V567" s="2"/>
     </row>
-    <row r="568" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -15455,1044 +15458,1044 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="F1" s="16" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="K1" s="18" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="K1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="F2" s="13" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="F2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="K2" s="25" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="K2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <f>D4/12</f>
         <v>7983.333333333333</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f>B4*47900</f>
         <v>95800</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>3</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <f>I4/12</f>
         <v>11975</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <f>G4*47900</f>
         <v>143700</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <v>3</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <f>N4/12</f>
         <v>11975</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="12">
         <f>L4*47900</f>
         <v>143700</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <f>D5/12</f>
         <v>0</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f>B5*0</f>
         <v>0</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <f>I5/12</f>
         <v>1539.4166666666667</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <f>G5*18473</f>
         <v>18473</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>1</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <f>N5/12</f>
         <v>1539.4166666666667</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="12">
         <f>L5*18473</f>
         <v>18473</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <f>D4+D5</f>
         <v>95800</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <f>I4+I5</f>
         <v>162173</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14" t="s">
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="13">
         <f>N4+N5</f>
         <v>162173</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="F8" s="13" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="F8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="K8" s="25" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="K8" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>61.74</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f>12*C10</f>
         <v>740.88</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>2</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <f>G10*61.74</f>
         <v>123.48</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <f>12*H10</f>
         <v>1481.76</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="12">
         <v>3</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <f>L10*61.74</f>
         <v>185.22</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="12">
         <f>12*M10</f>
         <v>2222.64</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>75.989999999999995</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f>12*C11</f>
         <v>911.87999999999988</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <f>G11*75.99</f>
         <v>75.989999999999995</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <f>12*H11</f>
         <v>911.87999999999988</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <v>2</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <f>L11*75.99</f>
         <v>151.97999999999999</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="12">
         <f>12*M11</f>
         <v>1823.7599999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>3</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
         <f>B12*1500</f>
         <v>4500</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>1</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
         <f>G12*1500</f>
         <v>1500</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14" t="s">
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="13">
         <f>N10+N11</f>
         <v>4046.3999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <f>D10+D11+D12</f>
         <v>6152.76</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <f>I10+I11+I12</f>
         <v>3893.64</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="F15" s="13" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="F15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="K15" s="25" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="K15" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="F16" s="11" t="s">
+      <c r="D16" s="7"/>
+      <c r="F16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="K16" s="13" t="s">
+      <c r="I16" s="10"/>
+      <c r="K16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7">
         <v>400</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="F17" s="11" t="s">
+      <c r="D17" s="7"/>
+      <c r="F17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
         <v>500</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="K17" s="13" t="s">
+      <c r="I17" s="10"/>
+      <c r="K17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12">
         <v>500</v>
       </c>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7">
         <v>200</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="F18" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="11">
+      <c r="D18" s="7"/>
+      <c r="F18" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="10">
         <v>500</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <f>12*G18</f>
         <v>6000</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="K18" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="L18" s="13">
+      <c r="I18" s="10"/>
+      <c r="K18" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="12">
         <v>500</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <f>12*L18</f>
         <v>6000</v>
       </c>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7">
         <v>40</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14" t="s">
+      <c r="D19" s="7"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="13">
         <f>SUM(M17:M18)</f>
         <v>6500</v>
       </c>
-      <c r="N19" s="13"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7">
         <v>25</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12" t="s">
+      <c r="D20" s="7"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <f>SUM(H17:H18)</f>
         <v>6500</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="I20" s="10"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7">
         <v>500</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="K21" s="12" t="s">
+      <c r="D21" s="7"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="K21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="15">
         <f>M19+N12+N6</f>
         <v>172719.4</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <f>SUM(C17:C21)</f>
         <v>1165</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="F22" s="9" t="s">
+      <c r="D22" s="7"/>
+      <c r="F22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <f>H20+I13+I6</f>
         <v>172566.64</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-    </row>
-    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <f>C22+D13+D6</f>
         <v>103117.75999999999</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16505,243 +16508,243 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="E1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="18" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="I1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <f>'Types Clients'!E2*B3</f>
-        <v>700</v>
-      </c>
-      <c r="E3" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <f>'Types Clients'!E2*F3</f>
-        <v>3500</v>
-      </c>
-      <c r="I3" s="13" t="s">
+        <v>3250</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>10</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="12">
         <f>'Types Clients'!E2*J3</f>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <f>'Types Clients'!E3*B4</f>
-        <v>1750</v>
-      </c>
-      <c r="E4" s="11" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>10</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <f>'Types Clients'!E3*F4</f>
-        <v>17500</v>
-      </c>
-      <c r="I4" s="13" t="s">
+        <v>16250</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>20</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <f>'Types Clients'!E3*J4</f>
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <f>'Types Clients'!E4*B5</f>
-        <v>3500</v>
-      </c>
-      <c r="E5" s="11" t="s">
+        <v>3250</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>15</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f>'Types Clients'!E4*F5</f>
-        <v>52500</v>
-      </c>
-      <c r="I5" s="13" t="s">
+        <v>48750</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>30</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <f>'Types Clients'!E4*J5</f>
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+        <v>97500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>0</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f>'Types Clients'!E5*B6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>10</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <f>'Types Clients'!E5*F6</f>
-        <v>70000</v>
-      </c>
-      <c r="I6" s="13" t="s">
+        <v>65000</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>20</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <f>'Types Clients'!E5*J6</f>
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>0</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>'Types Clients'!E6*B7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>3</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <f>'Types Clients'!E6*F7</f>
-        <v>42000</v>
-      </c>
-      <c r="I7" s="13" t="s">
+        <v>39000</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>5</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <f>'Types Clients'!E6*J7</f>
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="B8" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="15">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="14">
         <f>SUM(C3:C7)</f>
-        <v>5950</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="16">
+        <v>5525</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="15">
         <f>SUM(G3:G7)</f>
-        <v>185500</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="18">
+        <v>172250</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="17">
         <f>SUM(K3:K7)</f>
-        <v>357000</v>
+        <v>331500</v>
       </c>
     </row>
   </sheetData>
@@ -16751,77 +16754,88 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F17A5F-92A6-4315-9F36-20FF3EE15596}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <f>Revenus!C8</f>
-        <v>5950</v>
-      </c>
-      <c r="C2" s="8">
+        <v>5525</v>
+      </c>
+      <c r="C2" s="7">
         <f>Coûts!B24</f>
         <v>103117.75999999999</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="28">
         <f>B2-C2</f>
-        <v>-97167.76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+        <v>-97592.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <f>Revenus!G8</f>
-        <v>185500</v>
-      </c>
-      <c r="C3" s="11">
+        <v>172250</v>
+      </c>
+      <c r="C3" s="10">
         <f>Coûts!G22</f>
         <v>172566.64</v>
       </c>
-      <c r="D3" s="27">
-        <f t="shared" ref="D3:D4" si="0">B3-C3</f>
-        <v>12933.359999999986</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="D3" s="26">
+        <f t="shared" ref="D3" si="0">B3-C3</f>
+        <v>-316.64000000001397</v>
+      </c>
+      <c r="E3">
+        <f>D3-D2</f>
+        <v>97276.119999999981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="12">
         <f>Revenus!K8</f>
-        <v>357000</v>
-      </c>
-      <c r="C4" s="13">
+        <v>331500</v>
+      </c>
+      <c r="C4" s="12">
         <f>Coûts!L21</f>
         <v>172719.4</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <f>B4-C4</f>
-        <v>184280.6</v>
+        <v>158780.6</v>
+      </c>
+      <c r="E4">
+        <f>D4-D3</f>
+        <v>159097.24000000002</v>
       </c>
     </row>
   </sheetData>
@@ -16834,17 +16848,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545B124C-55DC-4AE7-87B2-CE75EFFDE6F1}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -16852,16 +16867,16 @@
         <v>73</v>
       </c>
       <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -16872,14 +16887,14 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <f>D2*C2</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -16890,14 +16905,14 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E6" si="0">D3*C3</f>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -16908,14 +16923,14 @@
         <v>50</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -16926,14 +16941,14 @@
         <v>100</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -16944,11 +16959,11 @@
         <v>200</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>13000</v>
       </c>
     </row>
   </sheetData>
@@ -16964,99 +16979,99 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
